--- a/路线测试文件/test-router - sheet.xlsx
+++ b/路线测试文件/test-router - sheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\比赛\外包服务大赛\code2\new_Delivery\路线测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\VSCode Workplace\new_Delivery\路线测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0EB16-45D2-4E6B-BE54-1C692CE2B6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21A61E-CDB2-4908-99BD-E0DAC990A446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="2712" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="点信息" sheetId="1" r:id="rId1"/>
+    <sheet name="节点信息" sheetId="1" r:id="rId1"/>
     <sheet name="车辆信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
